--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2644.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2644.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8207861501210878</v>
+        <v>1.156242251396179</v>
       </c>
       <c r="B1">
-        <v>1.532607544380947</v>
+        <v>2.064386129379272</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.139245986938477</v>
       </c>
       <c r="D1">
-        <v>1.520746004795525</v>
+        <v>1.037437081336975</v>
       </c>
       <c r="E1">
-        <v>0.8621774607985501</v>
+        <v>1.51601231098175</v>
       </c>
     </row>
   </sheetData>
